--- a/tensorrt.xlsx
+++ b/tensorrt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="114">
   <si>
     <t>resnet18</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,10 +155,6 @@
   </si>
   <si>
     <t>input：10*10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并发30进程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -193,10 +189,6 @@
   </si>
   <si>
     <t>2000 1200*720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -256,22 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TensorRT+flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TensorRT+flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TensorRT+flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>87%%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,9 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.56483376 0.4351663</t>
-  </si>
-  <si>
     <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,6 +456,40 @@
   </si>
   <si>
     <t>3*224*224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.56451863 0.43548134</t>
+  </si>
+  <si>
+    <t>res_fp16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_best</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5676661 0.4323339</t>
+  </si>
+  <si>
+    <t>TensorRT+flask+FP32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TensorRT+flask+FP16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TensorRT+flask+FP32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TensorRT+flask+FP16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,6 +764,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,18 +789,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1391,21 +1398,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1777,22 +1784,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="26.375" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -1812,9 +1819,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="9">
         <v>4</v>
@@ -1823,7 +1830,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="9">
         <v>30</v>
@@ -1832,9 +1839,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="9">
         <v>10</v>
@@ -1843,18 +1850,18 @@
         <v>30</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="9">
         <v>32</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="10">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="B4" s="9">
         <v>4</v>
@@ -1863,61 +1870,58 @@
         <v>30</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="B5" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" s="9">
         <v>30</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9">
+        <v>27.5</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="B6" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" s="9">
         <v>30</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="B7" s="9">
         <v>10</v>
@@ -1926,119 +1930,119 @@
         <v>30</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="9">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C8" s="9">
         <v>30</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B9" s="9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C9" s="9">
         <v>30</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="9">
-        <v>19.3</v>
+        <v>40</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="9">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="9">
+        <v>30</v>
+      </c>
+      <c r="C11" s="9">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="9">
+        <v>19.3</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="9">
-        <v>4</v>
-      </c>
-      <c r="C13" s="9">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="9">
-        <v>9.02</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="9">
-        <v>10</v>
-      </c>
-      <c r="C14" s="9">
-        <v>30</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="9">
-        <v>9.44</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="9">
         <v>4</v>
@@ -2050,15 +2054,15 @@
         <v>33</v>
       </c>
       <c r="E15" s="9">
-        <v>5.17</v>
+        <v>9.02</v>
       </c>
       <c r="F15" s="10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="9">
         <v>10</v>
@@ -2070,15 +2074,15 @@
         <v>33</v>
       </c>
       <c r="E16" s="9">
-        <v>3.3</v>
+        <v>9.44</v>
       </c>
       <c r="F16" s="10">
-        <v>0.34</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="B17" s="9">
         <v>4</v>
@@ -2089,19 +2093,19 @@
       <c r="D17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>30</v>
+      <c r="E17" s="9">
+        <v>5.17</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="B18" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C18" s="9">
         <v>30</v>
@@ -2109,19 +2113,19 @@
       <c r="D18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>39</v>
+      <c r="E18" s="9">
+        <v>4.6399999999999997</v>
       </c>
       <c r="F18" s="10">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="B19" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C19" s="9">
         <v>30</v>
@@ -2129,19 +2133,19 @@
       <c r="D19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>38</v>
+      <c r="E19" s="9">
+        <v>3.3</v>
       </c>
       <c r="F19" s="10">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="B20" s="9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C20" s="9">
         <v>30</v>
@@ -2150,9 +2154,89 @@
         <v>33</v>
       </c>
       <c r="E20" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="9">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9">
+        <v>30</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="9">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9">
+        <v>30</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="9">
+        <v>20</v>
+      </c>
+      <c r="C23" s="9">
+        <v>30</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="9">
+        <v>30</v>
+      </c>
+      <c r="C24" s="9">
+        <v>30</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="9">
         <v>13</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F24" s="10">
         <v>0.48</v>
       </c>
     </row>
@@ -2184,16 +2268,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -2219,7 +2303,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2245,7 +2329,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -2269,7 +2353,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -2293,7 +2377,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2319,7 +2403,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2343,7 +2427,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2367,7 +2451,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2393,7 +2477,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
@@ -2417,7 +2501,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -2441,7 +2525,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2467,7 +2551,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -2491,7 +2575,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
@@ -2569,12 +2653,12 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="27"/>
+      <c r="H3" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="31"/>
       <c r="J3" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -2583,16 +2667,16 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="G4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -2601,7 +2685,7 @@
       <c r="C5"/>
       <c r="D5"/>
       <c r="G5" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H5" s="15">
         <v>0.91</v>
@@ -2615,7 +2699,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G6" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H6" s="15">
         <v>0.99</v>
@@ -2629,13 +2713,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G7" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J7" s="14">
         <v>0.92400000000000004</v>
@@ -2660,7 +2744,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C14" s="11">
         <v>10</v>
@@ -2669,10 +2753,10 @@
         <v>30</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
@@ -2690,7 +2774,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F15" s="11">
         <v>11.73</v>
@@ -2711,7 +2795,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F16" s="11">
         <v>19.3</v>
@@ -2735,7 +2819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -2747,35 +2831,35 @@
   <sheetData>
     <row r="5" spans="4:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D5" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="4:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D6" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D7" s="20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2787,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2805,52 +2889,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="29" t="s">
+      <c r="E1" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="24" t="s">
         <v>86</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>111</v>
-      </c>
       <c r="C2" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -2864,25 +2948,25 @@
       <c r="I2" s="11">
         <v>0.17100000000000001</v>
       </c>
-      <c r="J2" s="30" t="s">
-        <v>106</v>
+      <c r="J2" s="25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F3" s="11">
         <v>0</v>
@@ -2896,89 +2980,89 @@
       <c r="I3" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J3" s="30" t="s">
-        <v>98</v>
+      <c r="J3" s="25" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="31">
+        <v>90</v>
+      </c>
+      <c r="I4" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J4" s="30" t="s">
-        <v>105</v>
+      <c r="J4" s="25" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I5" s="11">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J5" s="30" t="s">
-        <v>103</v>
+      <c r="J5" s="25" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D6" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F6" s="11">
         <v>5.0000000000000002E-5</v>
@@ -2992,25 +3076,25 @@
       <c r="I6" s="11">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J6" s="30" t="s">
-        <v>91</v>
+      <c r="J6" s="25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D7" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F7" s="11">
         <v>5.0000000000000002E-5</v>
@@ -3024,25 +3108,25 @@
       <c r="I7" s="11">
         <v>1.5E-3</v>
       </c>
-      <c r="J7" s="30" t="s">
-        <v>92</v>
+      <c r="J7" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D8" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F8" s="11">
         <v>5.0000000000000002E-5</v>
@@ -3056,255 +3140,319 @@
       <c r="I8" s="11">
         <v>1.4E-3</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>94</v>
+      <c r="J8" s="25" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="11">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G9" s="11">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H9" s="11">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.4E-3</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>23</v>
+        <v>77</v>
+      </c>
+      <c r="D10" s="11" t="b">
+        <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F10" s="11">
-        <v>0</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G10" s="11">
-        <v>0.69399999999999995</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H10" s="11">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="I10" s="11">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="J10" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1.67E-3</v>
-      </c>
-      <c r="G11" s="11">
-        <v>4.4999999999999999E-4</v>
-      </c>
-      <c r="H11" s="11">
-        <v>2.35E-2</v>
-      </c>
-      <c r="I11" s="11">
-        <v>2.6100000000000002E-2</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>97</v>
-      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
       </c>
       <c r="I12" s="11">
-        <v>0.63100000000000001</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1.67E-3</v>
+      </c>
+      <c r="G13" s="11">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.35E-2</v>
       </c>
       <c r="I13" s="11">
-        <v>4.1000000000000002E-2</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="11" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="11">
-        <v>7.2999999999999996E-4</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1E-4</v>
-      </c>
-      <c r="H14" s="11">
-        <v>1.7000000000000001E-2</v>
+        <v>90</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="I14" s="11">
-        <v>1.8700000000000001E-2</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="11" t="b">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="11">
-        <v>7.2999999999999996E-4</v>
-      </c>
-      <c r="G15" s="11">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="H15" s="11">
-        <v>6.0000000000000001E-3</v>
+        <v>90</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="I15" s="11">
-        <v>8.6E-3</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D16" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F16" s="11">
         <v>7.2999999999999996E-4</v>
       </c>
       <c r="G16" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="11">
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="G17" s="11">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H17" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I17" s="11">
+        <v>8.6E-3</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="11">
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="G18" s="11">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="H18" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I18" s="11">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="J18" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
